--- a/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -628,11 +628,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -640,8 +637,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -651,9 +654,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1544,9 +1544,9 @@
   <dimension ref="A2:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,62 +1568,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41436</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1649,18 +1649,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3522,19 +3522,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -3543,7 +3543,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3551,8 +3551,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                          OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3592,62 +3592,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41436</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3673,18 +3673,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1544,9 +1544,9 @@
   <dimension ref="A2:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>97.707999999999998</v>
+        <v>95.707999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3298,7 +3298,9 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
@@ -3307,14 +3309,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="40"/>
+      <c r="H85" s="40">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="48">
+        <v>45036</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="40"/>
       <c r="E86" s="9"/>
@@ -3323,10 +3331,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="40"/>
+      <c r="H86" s="40">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="48">
+        <v>45033</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>

--- a/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1546,7 +1546,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1707,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>89.706000000000003</v>
+        <v>90.956000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1717,7 +1717,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.707999999999998</v>
+        <v>95.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3279,13 +3279,15 @@
       <c r="B84" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40">
         <v>2</v>
@@ -3341,8 +3343,12 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="40"/>
       <c r="E87" s="9"/>
@@ -3354,11 +3360,15 @@
       <c r="H87" s="40"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="48">
+        <v>45051</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="40"/>
       <c r="E88" s="9"/>
@@ -3367,10 +3377,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H88" s="40"/>
+      <c r="H88" s="40">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="48">
+        <v>45044</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
